--- a/test_data/additional/additional-ro-crate-metadata.xlsx
+++ b/test_data/additional/additional-ro-crate-metadata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/source/github/Language-Research-Technology/ro-crate-excel/test_data/additional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC27412-6384-0F4C-A9FE-24A895F07A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA679FC-E309-5140-B031-83412ADD97D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="7" r:id="rId1"/>
-    <sheet name="EafFiles" sheetId="2" r:id="rId2"/>
-    <sheet name="WafFiles" sheetId="3" r:id="rId3"/>
+    <sheet name="WafFiles" sheetId="3" r:id="rId2"/>
+    <sheet name="EafFiles" sheetId="2" r:id="rId3"/>
     <sheet name="Objects" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
     <t>@id</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>someProperty</t>
+  </si>
+  <si>
+    <t>anon</t>
+  </si>
+  <si>
+    <t>someOtherProperty</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1177,7 @@
   <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView zoomScale="129" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2102,11 +2111,216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(B2,"/",_xlfn.CONCAT(C2,D2))</f>
+        <v>Audio_Anonymised/AUDIO_Rosa_anon.wav</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.CONCAT("AUDIO_",I2)</f>
+        <v>AUDIO_Rosa</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f>H2</f>
+        <v>#AUDIO_Rosa</v>
+      </c>
+      <c r="H2" t="str">
+        <f>_xlfn.CONCAT("#",C2)</f>
+        <v>#AUDIO_Rosa</v>
+      </c>
+      <c r="I2" t="str">
+        <f>People!B2</f>
+        <v>Rosa</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT(B3,"/",_xlfn.CONCAT(C3,D3))</f>
+        <v>Audio_Anonymised/AUDIO_Juan_anon.wav</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C5" si="1">_xlfn.CONCAT("AUDIO_",I3)</f>
+        <v>AUDIO_Juan</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G5" si="2">H3</f>
+        <v>#AUDIO_Juan</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H5" si="3">_xlfn.CONCAT("#",C3)</f>
+        <v>#AUDIO_Juan</v>
+      </c>
+      <c r="I3" t="str">
+        <f>People!B3</f>
+        <v>Juan</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Audio_Anonymised/AUDIO_Emilia_anon.wav</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>AUDIO_Emilia</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>#AUDIO_Emilia</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>#AUDIO_Emilia</v>
+      </c>
+      <c r="I4" t="str">
+        <f>People!B4</f>
+        <v>Emilia</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Audio_Anonymised/AUDIO_Maria_anon.wav</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>AUDIO_Maria</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>#AUDIO_Maria</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>#AUDIO_Maria</v>
+      </c>
+      <c r="I5" t="str">
+        <f>People!B5</f>
+        <v>Maria</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2115,15 +2329,16 @@
     <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2137,25 +2352,28 @@
         <v>25</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT(B2,"/",_xlfn.CONCAT(C2,D2))</f>
         <v>Transcripts_Anonymised/EAF_Rosa_anon.eaf</v>
@@ -2164,36 +2382,39 @@
         <v>24</v>
       </c>
       <c r="C2" t="str">
-        <f>_xlfn.CONCAT("EAF_", I2)</f>
+        <f>_xlfn.CONCAT("EAF_", J2)</f>
         <v>EAF_Rosa</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="b">
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <f>_xlfn.CONCAT("#",C2)</f>
         <v>#EAF_Rosa</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <f>_xlfn.CONCAT(WafFiles!C2, ".wav")</f>
         <v>AUDIO_Rosa.wav</v>
       </c>
-      <c r="H2" t="str">
-        <f>F2</f>
+      <c r="I2" t="str">
+        <f>G2</f>
         <v>#EAF_Rosa</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>People!B2</f>
         <v>Rosa</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT(B3,"/",_xlfn.CONCAT(C3,D3))</f>
         <v>Transcripts_Anonymised/EAF_Juan_anon.eaf</v>
@@ -2202,36 +2423,39 @@
         <v>24</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C5" si="1">_xlfn.CONCAT("EAF_", I3)</f>
+        <f t="shared" ref="C3:C5" si="1">_xlfn.CONCAT("EAF_", J3)</f>
         <v>EAF_Juan</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="b">
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F5" si="2">_xlfn.CONCAT("#",C3)</f>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G5" si="2">_xlfn.CONCAT("#",C3)</f>
         <v>#EAF_Juan</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <f>_xlfn.CONCAT(WafFiles!C3, ".wav")</f>
         <v>AUDIO_Juan.wav</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H5" si="3">F3</f>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I5" si="3">G3</f>
         <v>#EAF_Juan</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f>People!B3</f>
         <v>Juan</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/EAF_Emilia_anon.eaf</v>
@@ -2246,30 +2470,33 @@
       <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="b">
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f t="shared" si="2"/>
         <v>#EAF_Emilia</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <f>_xlfn.CONCAT(WafFiles!C4, ".wav")</f>
         <v>AUDIO_Emilia.wav</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <f t="shared" si="3"/>
         <v>#EAF_Emilia</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f>People!B4</f>
         <v>Emilia</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/EAF_Maria_anon.eaf</v>
@@ -2284,221 +2511,34 @@
       <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="b">
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f t="shared" si="2"/>
         <v>#EAF_Maria</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <f>_xlfn.CONCAT(WafFiles!C5, ".wav")</f>
         <v>AUDIO_Maria.wav</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <f t="shared" si="3"/>
         <v>#EAF_Maria</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f>People!B5</f>
         <v>Maria</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>_xlfn.CONCAT(B2,"/",_xlfn.CONCAT(C2,D2))</f>
-        <v>Audio_Anonymised/AUDIO_Rosa_anon.wav</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="str">
-        <f>_xlfn.CONCAT("AUDIO_",H2)</f>
-        <v>AUDIO_Rosa</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="str">
-        <f>G2</f>
-        <v>#AUDIO_Rosa</v>
-      </c>
-      <c r="G2" t="str">
-        <f>_xlfn.CONCAT("#",C2)</f>
-        <v>#AUDIO_Rosa</v>
-      </c>
-      <c r="H2" t="str">
-        <f>People!B2</f>
-        <v>Rosa</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT(B3,"/",_xlfn.CONCAT(C3,D3))</f>
-        <v>Audio_Anonymised/AUDIO_Juan_anon.wav</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C5" si="1">_xlfn.CONCAT("AUDIO_",H3)</f>
-        <v>AUDIO_Juan</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F5" si="2">G3</f>
-        <v>#AUDIO_Juan</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G5" si="3">_xlfn.CONCAT("#",C3)</f>
-        <v>#AUDIO_Juan</v>
-      </c>
-      <c r="H3" t="str">
-        <f>People!B3</f>
-        <v>Juan</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Audio_Anonymised/AUDIO_Emilia_anon.wav</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>AUDIO_Emilia</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="2"/>
-        <v>#AUDIO_Emilia</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="3"/>
-        <v>#AUDIO_Emilia</v>
-      </c>
-      <c r="H4" t="str">
-        <f>People!B4</f>
-        <v>Emilia</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Audio_Anonymised/AUDIO_Maria_anon.wav</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>AUDIO_Maria</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="2"/>
-        <v>#AUDIO_Maria</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="3"/>
-        <v>#AUDIO_Maria</v>
-      </c>
-      <c r="H5" t="str">
-        <f>People!B5</f>
-        <v>Maria</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2506,7 +2546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/test_data/additional/additional-ro-crate-metadata.xlsx
+++ b/test_data/additional/additional-ro-crate-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/source/github/Language-Research-Technology/ro-crate-excel/test_data/additional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA679FC-E309-5140-B031-83412ADD97D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5A905A-8F49-CF41-B4D3-50E5DE816EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="7" r:id="rId1"/>
@@ -2114,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2184,8 +2184,8 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f>H2</f>
-        <v>#AUDIO_Rosa</v>
+        <f>Objects!A2</f>
+        <v>#OBJECT_Rosa</v>
       </c>
       <c r="H2" t="str">
         <f>_xlfn.CONCAT("#",C2)</f>
@@ -2221,11 +2221,11 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G5" si="2">H3</f>
-        <v>#AUDIO_Juan</v>
+        <f>Objects!A3</f>
+        <v>#OBJECT_Juan</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H5" si="3">_xlfn.CONCAT("#",C3)</f>
+        <f t="shared" ref="H3:H5" si="2">_xlfn.CONCAT("#",C3)</f>
         <v>#AUDIO_Juan</v>
       </c>
       <c r="I3" t="str">
@@ -2258,11 +2258,11 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
+        <f>Objects!A4</f>
+        <v>#OBJECT_Emilia</v>
+      </c>
+      <c r="H4" t="str">
         <f t="shared" si="2"/>
-        <v>#AUDIO_Emilia</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="3"/>
         <v>#AUDIO_Emilia</v>
       </c>
       <c r="I4" t="str">
@@ -2295,11 +2295,11 @@
         <v>1</v>
       </c>
       <c r="G5" t="str">
+        <f>Objects!A5</f>
+        <v>#OBJECT_Maria</v>
+      </c>
+      <c r="H5" t="str">
         <f t="shared" si="2"/>
-        <v>#AUDIO_Maria</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="3"/>
         <v>#AUDIO_Maria</v>
       </c>
       <c r="I5" t="str">
@@ -2319,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2547,7 +2547,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
